--- a/documentacao/PlanilhaBackLog.xlsx
+++ b/documentacao/PlanilhaBackLog.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4868071-882B-46BE-84AA-E9ACB6D21A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Desktop\Estudos\Faculdade\Sprint 2\grupo-05-cco\documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45226D0-63B1-4A85-B91F-6CF035098865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -30,9 +25,6 @@
     <t>Planilha de Backlog</t>
   </si>
   <si>
-    <t>Nomes: Victor Alves Barbosa, RA: 02201058 / Kalil Bego Rocha, RA: 02201046 /Gabriel Marcolino da Silva, RA:02201017 / Kaio Silva Baleeiro de Jesus, RA: 02201045</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -220,13 +212,16 @@
   </si>
   <si>
     <t>Sistema de Avaliação de Parques</t>
+  </si>
+  <si>
+    <t>Nomes: Douglas Dourado RA:01201116, Gabriel Curti RA: 02201061, Gabriel Marcolino RA:02201017, José Paulo RA:02201062, Kaio Baleeiro RA:02201045, Kalil Bego RA:02201046</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +245,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -260,7 +263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,15 +308,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,7 +343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,537 +639,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6">
         <v>8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="6">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="5">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="3">
-        <v>8</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1167,5 +1184,6 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>